--- a/tools/src/test/java/com/gitee/qdbp/tools/excel/员工详情导入.2.xlsx
+++ b/tools/src/test/java/com/gitee/qdbp/tools/excel/员工详情导入.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27750" windowHeight="13650"/>
+    <workbookView windowWidth="27750" windowHeight="13230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="地址" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>注意：前面加*的为必填项</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -105,6 +112,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -136,6 +150,15 @@
     <t>熟悉分布式高可用架构，分库分表设计
 技术实践经验丰富，熟悉实施方案设计工作
 具有很强的接受能力和理解能力，对新技术有很强的学习能力</t>
+  </si>
+  <si>
+    <t>路人丙</t>
+  </si>
+  <si>
+    <t>HTML5、CSS3、jQuery、VueJS2、Bootstrap、AdminLTE</t>
+  </si>
+  <si>
+    <t>前端工程师</t>
   </si>
 </sst>
 </file>
@@ -202,23 +225,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +246,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -248,6 +263,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -255,12 +300,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -276,8 +346,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,56 +361,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,13 +383,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,127 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,31 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,32 +644,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -658,6 +655,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -678,26 +686,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,16 +715,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,137 +757,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -915,6 +938,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1284,7 +1310,7 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -1294,8 +1320,8 @@
   <cols>
     <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="19" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="20" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
     <col min="6" max="6" width="36.5" style="3" customWidth="1"/>
     <col min="7" max="16380" width="9" style="5"/>
@@ -1312,32 +1338,32 @@
       <c r="F1" s="7"/>
     </row>
     <row r="2" customFormat="1" ht="15" spans="1:6">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" customFormat="1" ht="15" spans="1:6">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1358,68 +1384,68 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:6">
-      <c r="A6" s="19">
+      <c r="A6" s="20">
         <v>10003</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19">
+      <c r="A7" s="20">
         <v>10003</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="19">
+      <c r="A8" s="20">
         <v>10003</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1447,10 +1473,10 @@
   <sheetPr/>
   <dimension ref="A1:XEX9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17884,6 +17910,20 @@
       <c r="XEW4" s="18"/>
       <c r="XEX4" s="18"/>
     </row>
+    <row r="5" ht="33" spans="1:4">
+      <c r="A5" s="15">
+        <v>10005</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
         <v>24</v>
